--- a/back/fixtures/temp/character.xlsx
+++ b/back/fixtures/temp/character.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>프로듀서</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>독수리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -993,11 +1005,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1026,11 +1043,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1040,6 +1060,9 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1054,6 +1077,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -1068,6 +1094,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -1082,6 +1111,9 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -1096,11 +1128,14 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1110,6 +1145,9 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1124,6 +1162,9 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1138,6 +1179,9 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1152,15 +1196,36 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>